--- a/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/TDOMCATxnValueForecastErrors.xlsx
+++ b/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/TDOMCATxnValueForecastErrors.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="171">
-  <si>
-    <t>FinancialInstitution</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>x</t>
   </si>
@@ -272,259 +269,256 @@
     <t>84</t>
   </si>
   <si>
-    <t>TDOMCA</t>
-  </si>
-  <si>
-    <t>41.4569759276965</t>
-  </si>
-  <si>
-    <t>-19.2066824901679</t>
-  </si>
-  <si>
-    <t>-12.5779223839955</t>
-  </si>
-  <si>
-    <t>17.0036360052114</t>
-  </si>
-  <si>
-    <t>21.4295327067697</t>
-  </si>
-  <si>
-    <t>-7.1839547918795</t>
-  </si>
-  <si>
-    <t>-16.1949953358012</t>
-  </si>
-  <si>
-    <t>1.12762173613243</t>
-  </si>
-  <si>
-    <t>-2.16455906542251</t>
-  </si>
-  <si>
-    <t>-28.0811126542856</t>
-  </si>
-  <si>
-    <t>-20.4034504621268</t>
-  </si>
-  <si>
-    <t>-8.31080771796053</t>
-  </si>
-  <si>
-    <t>15.4717894466647</t>
-  </si>
-  <si>
-    <t>-22.0266657293764</t>
-  </si>
-  <si>
-    <t>3.58935602052878</t>
-  </si>
-  <si>
-    <t>-2.63546971852571</t>
-  </si>
-  <si>
-    <t>6.35115410038242</t>
-  </si>
-  <si>
-    <t>-6.4937500765144</t>
-  </si>
-  <si>
-    <t>13.064556384687</t>
-  </si>
-  <si>
-    <t>8.9426891508927</t>
-  </si>
-  <si>
-    <t>16.4166946717073</t>
-  </si>
-  <si>
-    <t>-13.7225705489381</t>
-  </si>
-  <si>
-    <t>-5.31223454441539</t>
-  </si>
-  <si>
-    <t>-3.11141502126952</t>
-  </si>
-  <si>
-    <t>18.4154635986637</t>
-  </si>
-  <si>
-    <t>0.516046327313916</t>
-  </si>
-  <si>
-    <t>-10.2959231686011</t>
-  </si>
-  <si>
-    <t>-6.21148969691666</t>
-  </si>
-  <si>
-    <t>-5.9616692162686</t>
-  </si>
-  <si>
-    <t>-2.81104605480664</t>
-  </si>
-  <si>
-    <t>-7.15293950695315</t>
-  </si>
-  <si>
-    <t>-23.691608019461</t>
-  </si>
-  <si>
-    <t>-28.5560529524216</t>
-  </si>
-  <si>
-    <t>-28.9249428715287</t>
-  </si>
-  <si>
-    <t>-6.01476734416678</t>
-  </si>
-  <si>
-    <t>-4.44117096226194</t>
-  </si>
-  <si>
-    <t>-4.12026723574763</t>
-  </si>
-  <si>
-    <t>-4.68474301852279</t>
-  </si>
-  <si>
-    <t>-22.6762682815095</t>
-  </si>
-  <si>
-    <t>0.867569862060861</t>
-  </si>
-  <si>
-    <t>7.64684301682098</t>
-  </si>
-  <si>
-    <t>-11.1907429898071</t>
-  </si>
-  <si>
-    <t>3.38092421133456</t>
-  </si>
-  <si>
-    <t>-14.6329538349072</t>
-  </si>
-  <si>
-    <t>1.8523485665836</t>
-  </si>
-  <si>
-    <t>5.49842297934566</t>
-  </si>
-  <si>
-    <t>-16.7065045850073</t>
-  </si>
-  <si>
-    <t>-3.49946829400511</t>
-  </si>
-  <si>
-    <t>-19.6000474012611</t>
-  </si>
-  <si>
-    <t>7.31923277804043</t>
-  </si>
-  <si>
-    <t>-2.39754945914694</t>
-  </si>
-  <si>
-    <t>-4.76852586117138</t>
-  </si>
-  <si>
-    <t>-13.1974464957394</t>
-  </si>
-  <si>
-    <t>-2.63700084021377</t>
-  </si>
-  <si>
-    <t>12.7321899550338</t>
-  </si>
-  <si>
-    <t>-6.5953838597818</t>
-  </si>
-  <si>
-    <t>-21.2627969771507</t>
-  </si>
-  <si>
-    <t>12.5672707951771</t>
-  </si>
-  <si>
-    <t>8.5836493362915</t>
-  </si>
-  <si>
-    <t>-7.30689599895027</t>
-  </si>
-  <si>
-    <t>-27.3277829768249</t>
-  </si>
-  <si>
-    <t>18.2468480620895</t>
-  </si>
-  <si>
-    <t>12.7228280179849</t>
-  </si>
-  <si>
-    <t>-16.0565556755553</t>
-  </si>
-  <si>
-    <t>-12.5437990261755</t>
-  </si>
-  <si>
-    <t>36.1468007916975</t>
-  </si>
-  <si>
-    <t>4.17496853210559</t>
-  </si>
-  <si>
-    <t>-10.1446314220447</t>
-  </si>
-  <si>
-    <t>-21.6754554862873</t>
-  </si>
-  <si>
-    <t>17.8847778017546</t>
-  </si>
-  <si>
-    <t>-5.31957675821843</t>
-  </si>
-  <si>
-    <t>3.92509427410027</t>
-  </si>
-  <si>
-    <t>-37.2072988898325</t>
-  </si>
-  <si>
-    <t>15.9592527556918</t>
-  </si>
-  <si>
-    <t>22.1053195583989</t>
-  </si>
-  <si>
-    <t>1.97671117289406</t>
-  </si>
-  <si>
-    <t>-28.9592763133941</t>
-  </si>
-  <si>
-    <t>-112.473657500997</t>
-  </si>
-  <si>
-    <t>64.6820885086627</t>
-  </si>
-  <si>
-    <t>76.7467718443494</t>
-  </si>
-  <si>
-    <t>-14.6831399604916</t>
-  </si>
-  <si>
-    <t>83.5333405504637</t>
-  </si>
-  <si>
-    <t>1.26627125666687</t>
-  </si>
-  <si>
-    <t>35.2641181301814</t>
+    <t>1.39569634229224</t>
+  </si>
+  <si>
+    <t>-10.8960088707515</t>
+  </si>
+  <si>
+    <t>-136.890690752734</t>
+  </si>
+  <si>
+    <t>41.5174854193749</t>
+  </si>
+  <si>
+    <t>-281.643281507147</t>
+  </si>
+  <si>
+    <t>119.482084291905</t>
+  </si>
+  <si>
+    <t>81.8178426357106</t>
+  </si>
+  <si>
+    <t>-145.501653234486</t>
+  </si>
+  <si>
+    <t>133.364096900344</t>
+  </si>
+  <si>
+    <t>-184.730295247688</t>
+  </si>
+  <si>
+    <t>-74.6368396464006</t>
+  </si>
+  <si>
+    <t>-61.2427457394513</t>
+  </si>
+  <si>
+    <t>-33.1850413230418</t>
+  </si>
+  <si>
+    <t>-20.3875859976263</t>
+  </si>
+  <si>
+    <t>-121.737383675177</t>
+  </si>
+  <si>
+    <t>166.230324655157</t>
+  </si>
+  <si>
+    <t>-259.070452777412</t>
+  </si>
+  <si>
+    <t>-132.890276515387</t>
+  </si>
+  <si>
+    <t>251.793433357016</t>
+  </si>
+  <si>
+    <t>-178.457381409707</t>
+  </si>
+  <si>
+    <t>99.3890320513428</t>
+  </si>
+  <si>
+    <t>-252.111412769111</t>
+  </si>
+  <si>
+    <t>303.720336812297</t>
+  </si>
+  <si>
+    <t>-508.287839599416</t>
+  </si>
+  <si>
+    <t>238.267050083874</t>
+  </si>
+  <si>
+    <t>-115.277510964261</t>
+  </si>
+  <si>
+    <t>395.914411593845</t>
+  </si>
+  <si>
+    <t>-254.960415606351</t>
+  </si>
+  <si>
+    <t>-150.225992031316</t>
+  </si>
+  <si>
+    <t>-21.8930987085478</t>
+  </si>
+  <si>
+    <t>30.5458636949152</t>
+  </si>
+  <si>
+    <t>278.753835847122</t>
+  </si>
+  <si>
+    <t>-624.454930905829</t>
+  </si>
+  <si>
+    <t>-89.2802014290385</t>
+  </si>
+  <si>
+    <t>-184.568896670245</t>
+  </si>
+  <si>
+    <t>23.930460152834</t>
+  </si>
+  <si>
+    <t>-76.9140415745012</t>
+  </si>
+  <si>
+    <t>258.190719048603</t>
+  </si>
+  <si>
+    <t>-40.7073878909439</t>
+  </si>
+  <si>
+    <t>-49.9749156624755</t>
+  </si>
+  <si>
+    <t>-20.1721792465178</t>
+  </si>
+  <si>
+    <t>94.5892131593448</t>
+  </si>
+  <si>
+    <t>-166.688481790404</t>
+  </si>
+  <si>
+    <t>129.585269370847</t>
+  </si>
+  <si>
+    <t>-103.41587782805</t>
+  </si>
+  <si>
+    <t>-118.158467091839</t>
+  </si>
+  <si>
+    <t>-7.71968778842233</t>
+  </si>
+  <si>
+    <t>372.106552756116</t>
+  </si>
+  <si>
+    <t>-103.269054680447</t>
+  </si>
+  <si>
+    <t>16.0564053606436</t>
+  </si>
+  <si>
+    <t>-244.838219936196</t>
+  </si>
+  <si>
+    <t>46.9121055748319</t>
+  </si>
+  <si>
+    <t>208.652265858017</t>
+  </si>
+  <si>
+    <t>-365.536125487055</t>
+  </si>
+  <si>
+    <t>75.9705883964884</t>
+  </si>
+  <si>
+    <t>-42.2611682688316</t>
+  </si>
+  <si>
+    <t>-7.55445057855286</t>
+  </si>
+  <si>
+    <t>14.8405625715927</t>
+  </si>
+  <si>
+    <t>75.938274341348</t>
+  </si>
+  <si>
+    <t>-369.890375692292</t>
+  </si>
+  <si>
+    <t>148.404518079094</t>
+  </si>
+  <si>
+    <t>32.0816145168428</t>
+  </si>
+  <si>
+    <t>-159.936140973056</t>
+  </si>
+  <si>
+    <t>-92.6961448175675</t>
+  </si>
+  <si>
+    <t>-49.130195283763</t>
+  </si>
+  <si>
+    <t>267.364666116586</t>
+  </si>
+  <si>
+    <t>-326.569318919737</t>
+  </si>
+  <si>
+    <t>52.026112173286</t>
+  </si>
+  <si>
+    <t>120.758913319652</t>
+  </si>
+  <si>
+    <t>-46.4691389400223</t>
+  </si>
+  <si>
+    <t>-113.720461349417</t>
+  </si>
+  <si>
+    <t>91.8133991334144</t>
+  </si>
+  <si>
+    <t>-286.738092759893</t>
+  </si>
+  <si>
+    <t>326.370913606115</t>
+  </si>
+  <si>
+    <t>258.139674792822</t>
+  </si>
+  <si>
+    <t>-160.350002111906</t>
+  </si>
+  <si>
+    <t>352.660290509077</t>
+  </si>
+  <si>
+    <t>2613.39895869676</t>
+  </si>
+  <si>
+    <t>729.29912053017</t>
+  </si>
+  <si>
+    <t>-444.966459958896</t>
+  </si>
+  <si>
+    <t>474.873464335034</t>
+  </si>
+  <si>
+    <t>-1711.50209534796</t>
+  </si>
+  <si>
+    <t>20.1567867994099</t>
+  </si>
+  <si>
+    <t>2.38279804820468</t>
   </si>
 </sst>
 </file>
@@ -580,932 +574,677 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
       </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
-      </c>
-      <c r="C73" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
-      </c>
-      <c r="C75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
-      </c>
-      <c r="C81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
